--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Documents\media-scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EAFB21-F803-4342-887B-31626D2B72C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC69807-77BB-4A23-ABAF-C426E3D56CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="11" activeTab="11" xr2:uid="{766D28AA-5A18-4A9A-9850-750911FDF18E}"/>
+    <workbookView xWindow="5760" yWindow="1044" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="4" xr2:uid="{766D28AA-5A18-4A9A-9850-750911FDF18E}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム画面" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
   <si>
     <t>テストケースID</t>
   </si>
@@ -113,29 +113,12 @@
     <t>HP-003</t>
   </si>
   <si>
-    <t>ログイン状態によるボタン表示切り替え（ログイン中）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. HomePageを表示し、isLoggedIn=true, isAdmin=false
 2. 画面表示を確認</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「新規登録」「ログイン」は非表示、「マイページ」「ログアウト」ボタンが表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Adminの場合「管理者ダッシュボード」表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ログアウト」ボタン押下</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 「ログアウト」ボタンクリック
-2. store.dispatch('logout') がモックで呼ばれるか確認</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -185,11 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. メールを空、パスワードに任意文字
-2. 「ログイン」ボタンクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー文言「メールアドレスを入力してください」などが表示され、
 ログイン処理が行われない</t>
     <phoneticPr fontId="1"/>
@@ -199,19 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>API成功レスポンスをモック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン成功メッセージ or $router.push('/mypage') へ遷移</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. メールtest@example.com/パスワードpass1234入力
-2. 「ログイン」クリック → store.dispatch('login') モックで成功戻り値</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正常ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -235,41 +200,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォーム要素がすべて表示されている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI表示のみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード不一致</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. password="abc123", password_confirmation="abc124"
-2. 「登録」押下</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードが一致しません」的エラーが表示され、登録失敗</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フロントバリデーション / store.dispatch前に弾く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バックエンドでUnique制約に引っかかるケース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面に「このメールアドレスは既に使用されています」などのエラーメッセージが表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. email="duplicated@example.com", ほか正常
-2. store.dispatch('register')→API側モックで重複エラー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -293,442 +224,623 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3件分のタイトル・ポスター・「レビューを書く」「スケジュールに追加」ボタンがリスト表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIが正しく描画されているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「スケジュールに追加」モーダル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>storeのモック利用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SR-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SR-002</t>
+  </si>
+  <si>
+    <t>SR-003</t>
+  </si>
+  <si>
+    <t>キーワード検索（正常）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果0件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の場合のUI確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタン（ログイン時）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WD-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WD-002</t>
+  </si>
+  <si>
+    <t>作品情報の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル、あらすじ、ポスター画像が正しく表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-002</t>
+  </si>
+  <si>
+    <t>カレンダー表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullCalendarに3件のイベントが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付クリック→予定追加モーダル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RV-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RV-002</t>
+  </si>
+  <si>
+    <t>RV-003</t>
+  </si>
+  <si>
+    <t>作品選択ドロップダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星評価(範囲外)入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常投稿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RR-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RR-002</t>
+  </si>
+  <si>
+    <t>ランキング一覧の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「レビューを見る」リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST-002</t>
+  </si>
+  <si>
+    <t>ST-003</t>
+  </si>
+  <si>
+    <t>ユーザー情報の初期表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI表示確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール重複時のエラーは別途テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AU-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AU-002</t>
+  </si>
+  <si>
+    <t>AU-003</t>
+  </si>
+  <si>
+    <t>初期表示（ユーザー一覧取得）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー検索（username）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者のみアクセス想定(認可はサーバ側でチェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR-002</t>
+  </si>
+  <si>
+    <t>AR-003</t>
+  </si>
+  <si>
+    <t>レビュー一覧表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルタ適用（ユーザー名・作品名）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP-004</t>
+  </si>
+  <si>
+    <t>ログイン状態によるボタン表示切り替え（管理者）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン状態によるボタン表示切り替え（一般ユーザー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. HomePageを表示し、isLoggedIn=true, isAdmin=falseを設定
+2. 画面表示を確認</t>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」「ログイン」は非表示、「マイページ」「ログアウト」ボタンが表示
+管理者用の「管理者ダッシュボード」は表示されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新規登録」「ログイン」は非表示、
+「マイページ」「ログアウト」「管理者ダッシュボード」が表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 「ログアウト」ボタンクリック
+2. store.dispatch('logout') がモックで呼ばれるか確認
+3.logoutアクション成功後、トップ画面へ遷移するか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. メール欄を空欄、パスワード欄に任意の文字を入力
+2. 「ログイン」ボタンクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各入力項目（ユーザー名：text、メール：email、パスワード：password、
+パスワード確認：password）が正しく表示され、対応するラベルも存在する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> フロントバリデーションの確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. email に "duplicated@example.com"、その他の項目に正常な値を入力
+2. 「登録」ボタンをクリックし、store.dispatch('register') を実行（API側で重複エラーをモック）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「このメールアドレスは既に使用されています」
+などのエラーメッセージが表示され、登録処理が失敗する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3件分の作品が、タイトル、ポスター、
+及び「レビューを書く」「スケジュールに追加」ボタンと共にリスト表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIが正しく描画されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1. 任意作品の「スケジュールに追加」ボタンクリック
-2. 日付を入力 → 「保存」ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>store.dispatch('addToSchedule') が呼ばれ、成功ならモーダル閉じてメッセージ表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>storeのモック利用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SR-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SR-002</t>
-  </si>
-  <si>
-    <t>SR-003</t>
-  </si>
-  <si>
-    <t>キーワード検索（正常）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. query="Spider"
-2. 「検索」ボタン押下 → axios.get('/media/search',{query:'Spider'}) モック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果リストが表示され、ポスター/タイトルなど一覧レンダリング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TMDb APIへの連携はモックレスポンスを想定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索結果0件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. query="zzz_nodata" →レスポンス空
-2. 表示を確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「検索結果が見つかりませんでした」メッセージが画面に出る</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空の場合のUI確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録ボタン（ログイン時）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. isLoggedIn=true
-2. 検索結果に「登録する」ボタン表示
-3. ボタンクリック→ store.dispatch('registerWork')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功後「登録が完了しました」メッセージ or UI反映</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>storeモック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WD-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WD-002</t>
-  </si>
-  <si>
-    <t>作品情報の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. workに {title:"XXXX", overview:"...", poster_path:"/test.jpg"}
-2. 画面描画</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル、あらすじ、ポスター画像が正しく表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>storeモック利用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール登録アクション呼び出し→ 成功したら「登録完了」メッセージ表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. isLoggedIn=true、未登録の場合
-2. ボタンクリック→ store.dispatch('addToSchedule',{…})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「スケジュール登録」ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SC-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SC-002</t>
-  </si>
-  <si>
-    <t>カレンダー表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. events=[3件の予定データ]
-2. Scheduleをマウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FullCalendarに3件のイベントが表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FullCalendarのoptions確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダーUI上の動作、storeモック利用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>store.dispatch('createSchedule')が呼ばれ、成功時イベント追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. dateClickイベントをシミュレート
-2. モーダルが開く
-3. 予定タイトルを入力し「保存」クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付クリック→予定追加モーダル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RV-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RV-002</t>
-  </si>
-  <si>
-    <t>RV-003</t>
-  </si>
-  <si>
-    <t>作品選択ドロップダウン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. registeredWorksに2作品
-2. コンポーネント描画→ドロップダウン項目を確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2作品がプルダウン表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>星評価(範囲外)入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. rating=6で「投稿」クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「評価は1~5の範囲で入力」等のエラー表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バリデーションどこで実装か要確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功時「レビューを投稿しました」アラート or 次画面遷移</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 作品選択+ rating=4 + comment="面白かった"
-2. 「投稿」押下→ store.dispatch('createReview')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正常投稿</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RR-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RR-002</t>
-  </si>
-  <si>
-    <t>ランキング一覧の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. rankedWorks=3件
-2. 画面描画</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3件分のタイトル、レビュー数、平均評価が表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルーティング先要確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー一覧画面へ遷移</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. リンク押下→ $router.push('/media/:type/:id/reviews')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「レビューを見る」リンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ST-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ST-002</t>
-  </si>
-  <si>
-    <t>ST-003</t>
-  </si>
-  <si>
-    <t>ユーザー情報の初期表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除（論理削除など）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 「アカウントを削除する」押下→ confirmダイアログ→ yes
-2. axios.delete('/user')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. メール欄に新メール入力→「更新」
-2. store.dispatch('updateSettings') が成功したらページに成功メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. axios.get('/user')モックでユーザーデータ
-2. 設定画面描画</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>username/emailをフォーム初期値に反映</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設定を更新しました」メッセージが表示され、フォームにも反映</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功時ログアウトまたはトップ画面遷移</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI表示確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール重複時のエラーは別途テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理削除or論理削除要件を確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AU-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AU-002</t>
-  </si>
-  <si>
-    <t>AU-003</t>
-  </si>
-  <si>
-    <t>初期表示（ユーザー一覧取得）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー検索（username）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー削除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. AdminUserManagement描画→ axios.get('/admin/users')モックで5ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. searchUsername='tanaka'入力→「検索」
-2. axios.get('/admin/users',{ params:{username:'tanaka'} })</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 「削除」ボタンクリック→ confirmダイアログ→「はい」
-2. axios.delete('/admin/users/:id')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5ユーザーがテーブルに表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当ユーザーのみがテーブル表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功時リストから該当ユーザーが消え、「削除されました」メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者のみアクセス想定(認可はサーバ側でチェック)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI・APIパラメータ連動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>store利用かaxios直か要確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AR-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AR-002</t>
-  </si>
-  <si>
-    <t>AR-003</t>
-  </si>
-  <si>
-    <t>レビュー一覧表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィルタ適用（ユーザー名・作品名）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー削除モーダル表示→削除</t>
-  </si>
-  <si>
-    <t>1. AdminReviewManagement描画
-2. axios.get('/admin/reviews')→ 3レビュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. filterUsername='Tanaka', filterMediaTitle='Batman'
-2. 「フィルタ適用」ボタン押下</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. 「削除」押下→モーダル「本当に削除？」
-2. 「はい」クリック→ axios.delete('/admin/reviews/:id')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルに3件表示。レビューID/作品名/ユーザー/評価/コメント等が見える</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>axios.get('/admin/reviews',{ params:{username:'Tanaka',media_title:'Batman'}})呼び出し→結果テーブル描画</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功後テーブルから当該レビューが消える＆「削除されました」メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索パラメータが正しくAPIへ渡っているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>storeかaxiosか要確認</t>
+2. 表示されたモーダル内で日付を入力し、「保存」ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store.dispatch('addToSchedule') が呼ばれ、処理成功時はモーダルが閉じ、成功メッセージが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果リストが表示され、各作品のポスターやタイトルが一覧レンダリングされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「検索結果が見つかりませんでした」といったメッセージが画面に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. クエリに zzz_nodata を入力し、レスポンスが空である状況をシミュレーションする
+2. 結果表示を確認する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録処理が成功し、「登録が完了しました」
+といった成功メッセージが表示されるか、UIが更新される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI表示の確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーション実装箇所（フロント or store前）要確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「評価は1~5の範囲で入力」等のエラーメッセージが表示され、投稿処理が行われない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功時に「レビューを投稿しました」
+アラートが表示されるか、次画面へ遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3件分のタイトル、レビュー数、平均評価が一覧表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 「レビューを見る」リンクをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー一覧画面へ遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したユーザーデータ（username/email）が
+フォームの初期値として反映される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設定を更新しました」メッセージが表示され、フォームにも新メールアドレスが反映される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除要件を確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当するユーザーのみがテーブルに表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI・APIパラメータ連動の確認</t>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. テーブル内の任意のユーザーの「削除」ボタンをクリックする
+2. 表示されるconfirmダイアログで「はい」を選択する
+3.axios.delete('/admin/users/:id') を呼び出して削除処理を実行する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除成功時、該当ユーザーがテーブルから消え、
+「削除されました」メッセージが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索パラメータが正しくAPIへ渡っているか確認する</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除成功時、該当レビューがテーブルから削除され、
+「削除されました」メッセージが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 登録済みのメール/パスワード入力
+2. 「ログイン」ボタンをクリック</t>
+    <rPh sb="3" eb="6">
+      <t>トウロクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン成功し、mypageに遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. パスワードpassword="abc123", パスワード確認password_confirmation="abc124"を入力</t>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワードが一致しません」などのエラーメッセージが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. クエリに Spider を入力する
+2. 「検索」ボタンを押下し、検索結果を確認する</t>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.  isLoggedIn を true に設定する
+2.  検索結果内に「登録する」ボタンが表示されていることを確認する
+3. 「登録する」ボタンをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 作品検索で表示した作品のポスターまたはタイトルをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録アクションが呼ばれ、成功時は「登録完了」といったメッセージが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 作品検索で表示した作品のポスターまたはタイトルをクリックする
+2. 「登録する」ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「作品登録」ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>サクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. events に3件の予定データをセットする
+2. スケジュール管理をクリック、FullCalendarを表示する</t>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullCalendarの動作確認</t>
+    <rPh sb="13" eb="15">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーUI上の動作確認</t>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. カレンダー上で dateClick イベントをシミュレートする
+2. 予定追加モーダルが開くことを確認する
+3. モーダル内で予定タイトル「選択する」ボタンをクリックする</t>
+    <rPh sb="73" eb="75">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功時にイベントがカレンダーに追加される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. registeredWorks に作品のデータをセットする
+2. 登録作品がドロップダウンに表示されていることを確認する</t>
+    <rPh sb="36" eb="40">
+      <t>トウロクサクヒン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品がプルダウンに表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 評価未選択
+2.「投稿」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 作品選択ドロップダウンから任意の作品を選択
+2. rating = 4 と comment = "面白かった" を入力する
+3.「投稿」ボタンをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. rankedWorks にデータをセットする
+2. 画面を表示する</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 設定画面を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. メール入力欄に新しいメールアドレスを入力する
+2. 「更新」ボタンをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 「アカウントを削除する」ボタンを押下する
+2. 表示されるconfirmダイアログで「Yes」を選択する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除成功時にログアウト処理が行われるか、ログイン画面へ遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.登録ユーザーのデータを返す
+2.取得したユーザー情報をテーブルに表示する</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルにユーザーが表示される
+（各ユーザーのID、名前、メールアドレス、管理者、登録日、操作、レビュー管理）</t>
+    <rPh sb="37" eb="40">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>トウロクビ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 検索入力欄に 登録ユーザー情報 を入力し、「検索」ボタンをクリックする</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.取得したレビュー情報をテーブルに表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルにレビューが表示される
+（レビューID、作品名、ユーザー名、評価、投稿日、コメント、操作）</t>
+    <rPh sb="37" eb="39">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. フィルター入力欄に登録情報を入力する
+2. 「フィルタ適用」ボタンをクリックする</t>
+    <rPh sb="12" eb="16">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIからのレスポンスに基づき、結果テーブルが表示される</t>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー削除表示→削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. テーブル内の任意のレビューの「削除」ボタンをクリックする
+2. 表示されるモーダルで「本当に削除しますか？」の確認メッセージを確認する
+3.「はい」ボタンをクリックする</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -816,13 +928,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,22 +1250,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F68775-1EAA-43A3-8B69-1A8C0D1BEEE1}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.3984375" customWidth="1"/>
-    <col min="3" max="3" width="52.69921875" customWidth="1"/>
-    <col min="4" max="4" width="67.5" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="77.796875" customWidth="1"/>
+    <col min="4" max="4" width="71.19921875" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" customWidth="1"/>
+    <col min="8" max="8" width="40.09765625" customWidth="1"/>
     <col min="9" max="9" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1187,71 +1299,112 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1265,16 +1418,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD94B3CC-104E-4A7F-80A0-B0C344DFD00B}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.69921875" customWidth="1"/>
     <col min="2" max="2" width="27.296875" customWidth="1"/>
-    <col min="3" max="3" width="52.09765625" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="3" max="3" width="65.296875" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
     <col min="8" max="8" width="30.69921875" customWidth="1"/>
     <col min="9" max="9" width="19.3984375" customWidth="1"/>
   </cols>
@@ -1309,69 +1462,90 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>130</v>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>122</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>128</v>
+      <c r="A4" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>156</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1385,15 +1559,15 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.69921875" customWidth="1"/>
     <col min="2" max="2" width="26.09765625" customWidth="1"/>
-    <col min="3" max="3" width="50.19921875" customWidth="1"/>
-    <col min="4" max="4" width="59.296875" customWidth="1"/>
+    <col min="3" max="3" width="56.8984375" customWidth="1"/>
+    <col min="4" max="4" width="69.59765625" customWidth="1"/>
     <col min="8" max="8" width="45.3984375" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
@@ -1428,69 +1602,87 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>145</v>
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1503,17 +1695,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD66E3F-5F05-48A2-8F3E-5D407315D93E}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.69921875" customWidth="1"/>
     <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="63.19921875" customWidth="1"/>
-    <col min="8" max="8" width="36.296875" customWidth="1"/>
+    <col min="3" max="3" width="78.19921875" customWidth="1"/>
+    <col min="4" max="4" width="65.09765625" customWidth="1"/>
+    <col min="8" max="8" width="42.796875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1547,69 +1739,87 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3261108-264B-4574-B2A8-FC5B430045F7}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1631,12 +1841,12 @@
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.69921875" customWidth="1"/>
     <col min="3" max="3" width="58.296875" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="4" max="4" width="66.69921875" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.296875" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -1669,71 +1879,86 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1747,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E12DE9E-D54A-4F60-9A30-DAEA6F291DC1}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1756,7 +1981,7 @@
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.3984375" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="71.19921875" customWidth="1"/>
+    <col min="4" max="4" width="71.09765625" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
@@ -1793,72 +2018,87 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1872,17 +2112,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBCD1AD-C5EE-4953-894C-FAD106B884D2}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.796875" customWidth="1"/>
     <col min="2" max="2" width="27.796875" customWidth="1"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1"/>
+    <col min="3" max="3" width="60.3984375" customWidth="1"/>
     <col min="4" max="4" width="77.3984375" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" customWidth="1"/>
     <col min="9" max="9" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1916,49 +2156,58 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>64</v>
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>109</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1971,16 +2220,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C1FD4A-ACEB-4F23-89DF-D5DF7CB73D45}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.09765625" customWidth="1"/>
     <col min="2" max="2" width="22.296875" customWidth="1"/>
-    <col min="3" max="3" width="42.796875" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="3" max="3" width="89.296875" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
     <col min="8" max="8" width="38.3984375" customWidth="1"/>
     <col min="9" max="9" width="19.09765625" customWidth="1"/>
   </cols>
@@ -2014,73 +2263,85 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>75</v>
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>111</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>70</v>
+      <c r="A4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
+        <v>137</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2094,16 +2355,16 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="32.796875" customWidth="1"/>
+    <col min="3" max="3" width="44.69921875" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="44.19921875" customWidth="1"/>
     <col min="9" max="9" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2136,50 +2397,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>92</v>
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2192,20 +2465,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146175EF-EC4C-4810-927E-ADA6F82F49C3}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.59765625" customWidth="1"/>
     <col min="4" max="4" width="50.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.8984375" customWidth="1"/>
     <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2239,49 +2512,61 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>102</v>
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2294,20 +2579,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A41411F-9E33-440E-9D0F-757FF2C0026A}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.796875" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="52.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.09765625" customWidth="1"/>
     <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2340,73 +2625,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>110</v>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>151</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2419,16 +2722,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961990AC-0B0A-48EC-AC57-E22774495BF9}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.796875" customWidth="1"/>
     <col min="2" max="2" width="23.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.59765625" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="3" max="3" width="38.8984375" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
     <col min="8" max="8" width="19.19921875" customWidth="1"/>
     <col min="9" max="9" width="19.796875" customWidth="1"/>
   </cols>
@@ -2463,49 +2766,58 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45696</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
